--- a/current_field.xlsx
+++ b/current_field.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,47 +424,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>b</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>o</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -920,60 +920,184 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>b</t>
         </is>

--- a/current_field.xlsx
+++ b/current_field.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>o</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>res</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>res</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>res</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -987,17 +987,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>i</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">

--- a/current_field.xlsx
+++ b/current_field.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -615,14 +615,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>r</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>g</t>
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>g</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -935,22 +935,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>r</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>res</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -997,27 +997,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>r</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>r</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>g</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/current_field.xlsx
+++ b/current_field.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>r</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1007,17 +1007,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>r</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>g</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
